--- a/datasets/2016to2020_example_data/kbo_data_2016to2020.xlsx
+++ b/datasets/2016to2020_example_data/kbo_data_2016to2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakhe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakhe\Desktop\2020 빅콘테스트\2020_BigContest\datasets\2016to2020_example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D3425-A218-415C-99A4-2710161C3459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01285954-C670-485E-851F-C7A47A977B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A1F178-5A49-42D0-B062-431B756505EA}"/>
   </bookViews>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2EEB9F-FC25-451A-9E6A-CA23ED13E0C7}">
   <dimension ref="A1:AQ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AB52" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6051,7 +6051,7 @@
         <v>10</v>
       </c>
       <c r="AA42">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB42">
         <v>30</v>
@@ -6182,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="AA43">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB43">
         <v>31</v>
@@ -6313,7 +6313,7 @@
         <v>6</v>
       </c>
       <c r="AA44">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB44">
         <v>32</v>
@@ -6444,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="AA45">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB45">
         <v>35</v>
@@ -6575,7 +6575,7 @@
         <v>7</v>
       </c>
       <c r="AA46">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB46">
         <v>29</v>
@@ -6706,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB47">
         <v>32</v>
@@ -6837,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="AA48">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB48">
         <v>29</v>
@@ -6968,7 +6968,7 @@
         <v>9</v>
       </c>
       <c r="AA49">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB49">
         <v>33</v>
@@ -7099,7 +7099,7 @@
         <v>8</v>
       </c>
       <c r="AA50">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB50">
         <v>36</v>
@@ -7230,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="AA51">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="AB51">
         <v>33</v>
@@ -7284,5 +7284,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>